--- a/inst/extdata/rp_pos_sample.xlsx
+++ b/inst/extdata/rp_pos_sample.xlsx
@@ -12,7 +12,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1319">
+  <si>
+    <t xml:space="preserve">Sample_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_50</t>
+  </si>
   <si>
     <t xml:space="preserve">Injection_order</t>
   </si>
@@ -167,159 +320,6 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subject_ID</t>
   </si>
   <si>
@@ -1022,142 +1022,145 @@
     <t xml:space="preserve">4237.88694072205</t>
   </si>
   <si>
+    <t xml:space="preserve">4288.3636390948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6012.47672051933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9460.19491360542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4982.01117940065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6759.60370320169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4456.26898357149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7371.20063421182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6590.48405183959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6929.4980722438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3315.22007593425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5341.23442951072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5763.63134540256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2736.92051349626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2095.36504597919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4018.29619208845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3310.70977589518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7050.53701313794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4993.149749377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5269.4393455954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5038.68578169996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6369.10063255799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8322.62861626267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5777.52300708816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5743.97290951783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13922.7650442863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13856.030227211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13977.8399967681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13125.5065530952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18561.8580735717</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">6012.47672051933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9460.19491360542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6759.60370320169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4456.26898357149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7371.20063421182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6590.48405183959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6929.4980722438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5341.23442951072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5763.63134540256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2736.92051349626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2095.36504597919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4018.29619208845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3310.70977589518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7050.53701313794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4993.149749377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5269.4393455954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5038.68578169996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6369.10063255799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8322.62861626267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5777.52300708816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5743.97290951783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7954.90173524107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7916.77217473605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7986.36932330074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7499.38065628593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10605.490829521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7107.20914110556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9521.24697634306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10859.7258583872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8524.36929395405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10054.1348766225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6744.08836674606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10455.4107716199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8741.56869076567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10291.2490334579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11848.4918666769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7015.01078360483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10189.9471610827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9484.2743478491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7548.17379466117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9015.58895625348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10288.4590742935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7127.90535779428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8522.75249622947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9324.92937054007</t>
+    <t xml:space="preserve">16664.2013933349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19006.823290081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11025.4542693907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17596.8682291381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11803.5848704629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18299.1861445481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15299.5990460631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18011.8682887453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20737.3734936376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12277.7565548778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17834.5685288528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16599.4914526312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13210.9048928839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15779.1926225442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18006.9852685369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12475.3460014264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14916.6243009552</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_383_4976a2_6503</t>
@@ -1172,9 +1175,6 @@
     <t xml:space="preserve">17682.0597684385</t>
   </si>
   <si>
-    <t xml:space="preserve">16889.8467413888</t>
-  </si>
-  <si>
     <t xml:space="preserve">14782.112903654</t>
   </si>
   <si>
@@ -1208,9 +1208,6 @@
     <t xml:space="preserve">15524.8419976092</t>
   </si>
   <si>
-    <t xml:space="preserve">3043.26007958447</t>
-  </si>
-  <si>
     <t xml:space="preserve">8962.09924013143</t>
   </si>
   <si>
@@ -1235,73 +1232,82 @@
     <t xml:space="preserve">5793.98263217507</t>
   </si>
   <si>
+    <t xml:space="preserve">18007.5892951925</t>
+  </si>
+  <si>
     <t xml:space="preserve">12440.5363444483</t>
   </si>
   <si>
-    <t xml:space="preserve">26004.1110800465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14359.7817357175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14607.9164037525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16621.9980187408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24840.9601306562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19252.4618140551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14513.2240613075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17235.8841109484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20150.6036970014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27423.1065788021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16234.8355075725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13609.2140394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18614.0707270113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16844.01859681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25985.1102491171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19385.2517105462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15324.9803923073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15501.3332044766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16097.2063766662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20187.2053061967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9976.24529282844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18146.5881811712</t>
+    <t xml:space="preserve">15293.3704743572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22966.7876157187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28144.927317169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15541.9661144386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15810.5287342188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17990.4217707544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26886.0187227273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20837.4413093833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15708.0407434776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18654.8466916072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21809.5236827517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12857.6932011761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29680.7431369418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17571.3856920658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9910.99375873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18230.7204302025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28124.3622225257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20981.163276025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16586.6257820091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16777.4970279211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17422.4260958636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21849.1385585427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10797.550348889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19640.5254477457</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_344_9911a1_9656</t>
@@ -1316,9 +1322,15 @@
     <t xml:space="preserve">14100.2978519688</t>
   </si>
   <si>
+    <t xml:space="preserve">20967.3792071857</t>
+  </si>
+  <si>
     <t xml:space="preserve">9917.90844083491</t>
   </si>
   <si>
+    <t xml:space="preserve">19411.8272463499</t>
+  </si>
+  <si>
     <t xml:space="preserve">14996.3791407677</t>
   </si>
   <si>
@@ -1382,76 +1394,79 @@
     <t xml:space="preserve">16261.6917423146</t>
   </si>
   <si>
-    <t xml:space="preserve">20329.0764634092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16826.389011459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18239.3952253512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21319.4395359398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29935.5613250083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23752.5933861477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21184.3961256625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19115.9046742393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15349.0634325584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16999.5824335002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9562.14123782442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28302.9442535819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22626.8917306295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20485.6160490847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21467.4521848032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27013.7785641993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23079.5705548384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20449.7896396427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21485.1364343842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19342.6344014796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27185.3515379712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32042.2104880894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23413.9867296948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25044.2470390247</t>
+    <t xml:space="preserve">22776.6720625008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18852.2653845042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20435.3957944875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23886.2736209603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33539.7657898451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26612.3761777363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23734.9711515331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21417.4358941911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17197.0716377185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19046.3110798075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10713.4111862511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31710.5836473876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25351.1414387112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22952.0588201899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24052.1068092181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30266.2040075085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25858.3222320542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22911.9189554741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24071.920220521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21671.4635994568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30458.43415458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25040.396115131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35900.0529000149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26233.001699703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28059.5433288297</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_117_7095a4_0945</t>
@@ -1463,6 +1478,9 @@
     <t xml:space="preserve">4.09449796145782</t>
   </si>
   <si>
+    <t xml:space="preserve">26025.3742340145</t>
+  </si>
+  <si>
     <t xml:space="preserve">30661.4900750497</t>
   </si>
   <si>
@@ -1517,6 +1535,9 @@
     <t xml:space="preserve">18054.4346508733</t>
   </si>
   <si>
+    <t xml:space="preserve">19416.5315249902</t>
+  </si>
+  <si>
     <t xml:space="preserve">24736.7469086614</t>
   </si>
   <si>
@@ -1532,76 +1553,70 @@
     <t xml:space="preserve">16501.1453190449</t>
   </si>
   <si>
-    <t xml:space="preserve">32396.2711383611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27017.6695136848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29276.8240679698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19864.6452181005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35715.6942510786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35596.058796102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26412.8442435703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24750.1499241259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30405.7407124057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35412.9334075334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27692.8947737782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28046.9020873642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14815.2702330928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15230.8527696744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31181.3839312946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21212.738364613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23314.2089588802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23291.4743186825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18843.3610024363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21048.7826698795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27396.5942062916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29640.4557237569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19638.5169872102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25281.7466389764</t>
+    <t xml:space="preserve">31964.5950036704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26657.6625519513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19599.9513825622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35239.7872315253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35121.7459035565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26060.8965005551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24420.3573684755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30000.5881389171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34941.0606371724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27323.8905225394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27673.1807343291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30036.3254167156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14617.8586679992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15027.9036208796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30765.896011951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23003.5501313949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18592.2756473541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20768.3103555174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27031.5381218999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29245.5004740414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19376.8362811842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24944.870625662</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_294_9596a6_7569</t>
@@ -1613,27 +1628,33 @@
     <t xml:space="preserve">6.75693447189406</t>
   </si>
   <si>
+    <t xml:space="preserve">10266.8240842978</t>
+  </si>
+  <si>
     <t xml:space="preserve">17809.5836579319</t>
   </si>
   <si>
     <t xml:space="preserve">6965.79784929881</t>
   </si>
   <si>
+    <t xml:space="preserve">15175.2339088918</t>
+  </si>
+  <si>
     <t xml:space="preserve">12766.1731535439</t>
   </si>
   <si>
     <t xml:space="preserve">15162.8662757704</t>
   </si>
   <si>
+    <t xml:space="preserve">11397.6475394528</t>
+  </si>
+  <si>
     <t xml:space="preserve">6525.03522341967</t>
   </si>
   <si>
     <t xml:space="preserve">16894.4306455929</t>
   </si>
   <si>
-    <t xml:space="preserve">15673.6905877403</t>
-  </si>
-  <si>
     <t xml:space="preserve">11080.0070919865</t>
   </si>
   <si>
@@ -1664,64 +1685,76 @@
     <t xml:space="preserve">16467.3110958096</t>
   </si>
   <si>
+    <t xml:space="preserve">9486.45624463919</t>
+  </si>
+  <si>
     <t xml:space="preserve">9696.33260696055</t>
   </si>
   <si>
     <t xml:space="preserve">12656.7367788194</t>
   </si>
   <si>
-    <t xml:space="preserve">17716.1709870368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16994.5479669768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16125.5871313341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19216.1679443666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17636.6273915857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19817.4006223003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15388.2753152007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17114.3049361466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20849.3474810139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19546.5054434391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21400.9402332398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16553.0047395507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17829.1850038825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15758.106625969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11620.7749906159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22013.0009331301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18838.4268743044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19868.0436062259</t>
+    <t xml:space="preserve">20910.6257568369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20058.8847727928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24284.2245245808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22681.0915665239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20816.7394223096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23390.7342726285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18162.9803863816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20552.5950249211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200.2354724396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709.9422640899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24608.7544971619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23070.9931892621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19537.7255905446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21044.0176626424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28131.1638603135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13716.1510244502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25982.2297173806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18906.6931805202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22235.2388958289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20430.3921011956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23450.5088415719</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_460_4815a0_8843</t>
@@ -1733,12 +1766,15 @@
     <t xml:space="preserve">0.884308386710472</t>
   </si>
   <si>
+    <t xml:space="preserve">31688.2614641531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29930.9875173952</t>
+  </si>
+  <si>
     <t xml:space="preserve">34368.0282059915</t>
   </si>
   <si>
-    <t xml:space="preserve">12903.4017264845</t>
-  </si>
-  <si>
     <t xml:space="preserve">20130.6118425505</t>
   </si>
   <si>
@@ -1763,18 +1799,21 @@
     <t xml:space="preserve">33171.4646218244</t>
   </si>
   <si>
+    <t xml:space="preserve">21666.7548915014</t>
+  </si>
+  <si>
     <t xml:space="preserve">3708.9355646123</t>
   </si>
   <si>
+    <t xml:space="preserve">15444.261337793</t>
+  </si>
+  <si>
     <t xml:space="preserve">11746.9901406525</t>
   </si>
   <si>
     <t xml:space="preserve">25727.3941803105</t>
   </si>
   <si>
-    <t xml:space="preserve">25544.5754726297</t>
-  </si>
-  <si>
     <t xml:space="preserve">7594.44755781942</t>
   </si>
   <si>
@@ -1787,76 +1826,82 @@
     <t xml:space="preserve">31556.7441730858</t>
   </si>
   <si>
+    <t xml:space="preserve">12093.0860515805</t>
+  </si>
+  <si>
     <t xml:space="preserve">31912.5888913867</t>
   </si>
   <si>
-    <t xml:space="preserve">37402.1355352168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33977.144211087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35177.0246780144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35521.7166632118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36866.7706136477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30582.0500764949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34293.5157254557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31223.070355232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21711.1182574535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32974.7672378143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26248.2933212335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25653.2211649854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13977.7968071187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26979.3327835512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9120.05290073919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16928.7885524151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27861.9661202085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25070.9486921795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22292.1353842363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30981.5115832517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35675.2525529615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28329.7904266918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29317.8239763275</t>
+    <t xml:space="preserve">35206.4064631918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31982.4826159376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13700.7179788716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33111.9229225242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33436.3794264593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34702.4706647358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28786.700814369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32280.2812300769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29390.0893685631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20436.5457534537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31038.9511665861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24707.3615024552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24147.2236411272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13157.2165281304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25395.4845757155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8584.65124503148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15934.9674069967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26226.3020561522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23599.1340452636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20983.4536996143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29162.711541351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33580.9018411254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26666.6622776134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27596.6923480887</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_272_3545a3_5592</t>
@@ -1937,73 +1982,82 @@
     <t xml:space="preserve">28794.0808526022</t>
   </si>
   <si>
+    <t xml:space="preserve">32810.4581224773</t>
+  </si>
+  <si>
     <t xml:space="preserve">28173.4589075403</t>
   </si>
   <si>
-    <t xml:space="preserve">40311.4687070793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36537.0512313243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38963.0050079033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39330.7142348324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31752.9698145141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36414.3002943493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28328.0217699394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35375.4987641581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31654.4272885335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26523.4026897336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42733.1583321454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32532.5868494458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30708.0864105046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29229.6772638791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34543.9832583402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35148.1943412554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43194.3844829568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33564.7010140378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23373.6431228733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38882.9225721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13667.068604037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29620.3864447432</t>
+    <t xml:space="preserve">20230.3250539983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37390.0643222666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33889.1819003672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36139.3248660886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32205.3742119111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36480.385911189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29451.8066909127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33775.3268219907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26275.0673709539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32811.8080696934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29360.4056206201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24601.2304791158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39636.2521629465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30174.9242556595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28482.6468230579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23819.3493076357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27111.3791699583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32040.5531577622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42814.1996111212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40064.0528856456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31132.2402810922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36065.0460684998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12676.6052091779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27473.773343933</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_409_2445a2_4149</t>
@@ -2018,12 +2072,18 @@
     <t xml:space="preserve">29300.3994714934</t>
   </si>
   <si>
+    <t xml:space="preserve">17904.0266545807</t>
+  </si>
+  <si>
     <t xml:space="preserve">14541.3809801952</t>
   </si>
   <si>
     <t xml:space="preserve">15476.5735672408</t>
   </si>
   <si>
+    <t xml:space="preserve">29697.5140650086</t>
+  </si>
+  <si>
     <t xml:space="preserve">28601.1550194127</t>
   </si>
   <si>
@@ -2048,6 +2108,9 @@
     <t xml:space="preserve">23165.9272021091</t>
   </si>
   <si>
+    <t xml:space="preserve">31129.9705313744</t>
+  </si>
+  <si>
     <t xml:space="preserve">19372.297479102</t>
   </si>
   <si>
@@ -2081,73 +2144,70 @@
     <t xml:space="preserve">22942.8140303756</t>
   </si>
   <si>
-    <t xml:space="preserve">33898.3420205118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36511.332411839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26332.7047439619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36760.3401929208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36962.5844910023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33921.2321909271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30887.1134754309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22993.5582022039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22384.6510774405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27480.7835897936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32378.9410405442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32655.1803481185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34518.9933923971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24090.1713763269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32676.4353997147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31428.9626724839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20110.9882604026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17202.1482965078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36533.6196289643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28299.9868663733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24327.6685067215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24224.4494612347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32086.2222870509</t>
+    <t xml:space="preserve">32668.476921281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35186.6654581408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25377.328386223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35621.5456692409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32690.5366138609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29766.4987015158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22159.3293563533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30705.2881180307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26483.7538053827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31470.4183737738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33266.6104526003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23216.1563288563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31490.902271249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30288.6890782024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19381.3418795401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25169.0759731158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16578.037482803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35208.1440731673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27273.2355835354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23445.0368304004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23345.5626731309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30922.1026692499</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_245_9925a3_6251</t>
@@ -2183,6 +2243,9 @@
     <t xml:space="preserve">12730.4355149485</t>
   </si>
   <si>
+    <t xml:space="preserve">15545.0606681395</t>
+  </si>
+  <si>
     <t xml:space="preserve">10915.283579711</t>
   </si>
   <si>
@@ -2228,70 +2291,73 @@
     <t xml:space="preserve">8162.5515746417</t>
   </si>
   <si>
-    <t xml:space="preserve">16536.8064653724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18563.8432439481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17236.5235962884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11063.9441787975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14096.0708879926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11761.7121554873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7446.39309671628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5647.38663084262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18940.5914283246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15818.7636679573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11853.471677363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11485.3314157266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16134.5858496228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13189.1076652226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14108.0848845353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9314.90933338014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6235.83002484681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13444.253661228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17700.2020425918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8550.68453020276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14145.9697841268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10588.0926543328</t>
+    <t xml:space="preserve">19480.0357329919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21867.8455535536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13151.0761704293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20304.288876534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16604.8967899498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13855.0676970082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8771.70594634947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6652.51139010398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22311.6475723631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18634.1953114599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13529.4965719108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19006.2276864531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15536.5117891902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16619.0490437382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14504.3894270886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10972.7816579208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7345.68624016028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15837.0687999844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20850.4930497231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10072.5397336347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18494.4710303485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16663.6767171241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12472.5667971339</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_369_1069a1_6271</t>
@@ -2306,9 +2372,6 @@
     <t xml:space="preserve">10431.2255175534</t>
   </si>
   <si>
-    <t xml:space="preserve">12030.5515772866</t>
-  </si>
-  <si>
     <t xml:space="preserve">8134.8751307511</t>
   </si>
   <si>
@@ -2327,9 +2390,6 @@
     <t xml:space="preserve">16780.9032080503</t>
   </si>
   <si>
-    <t xml:space="preserve">14842.1611894079</t>
-  </si>
-  <si>
     <t xml:space="preserve">12129.4741752254</t>
   </si>
   <si>
@@ -2348,6 +2408,9 @@
     <t xml:space="preserve">14382.4680467859</t>
   </si>
   <si>
+    <t xml:space="preserve">14099.5792958116</t>
+  </si>
+  <si>
     <t xml:space="preserve">11231.7613040476</t>
   </si>
   <si>
@@ -2366,82 +2429,85 @@
     <t xml:space="preserve">13013.9911711332</t>
   </si>
   <si>
-    <t xml:space="preserve">14728.4602172499</t>
-  </si>
-  <si>
     <t xml:space="preserve">9223.04128424483</t>
   </si>
   <si>
     <t xml:space="preserve">10332.5669418374</t>
   </si>
   <si>
-    <t xml:space="preserve">18250.838705097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15876.7625707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11241.6152288163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23584.0401801084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12210.4027339622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18723.4516205792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17038.7462481451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17551.747583058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15889.7612889909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19051.4546323858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13193.5533487916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18675.0170919496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21923.5099759756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14104.1532399534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17577.9976864004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15379.2674640063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17185.1321833745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20646.2940263696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21919.9861405175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19113.5428904434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15749.7554074881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18820.5885442482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22453.9137678063</t>
+    <t xml:space="preserve">21935.9932718071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19082.5508108348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13511.4884311969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28346.0587796662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14675.890601315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22504.0347685133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20479.1587443572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20642.0574128615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21095.7437689092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19098.1741912267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22898.2671638779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15857.5560371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22445.8204852517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26350.2393012267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16952.0215248929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21127.294214322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18484.6029854808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20655.1024882128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24815.1317409711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26346.0039434906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22972.8920966285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18929.8987423949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22620.7852882279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26987.7406345594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25008.6792848415</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_174_0715a4_3465</t>
@@ -2462,6 +2528,9 @@
     <t xml:space="preserve">12701.2495951162</t>
   </si>
   <si>
+    <t xml:space="preserve">22131.1172972077</t>
+  </si>
+  <si>
     <t xml:space="preserve">32268.3785598077</t>
   </si>
   <si>
@@ -2501,9 +2570,6 @@
     <t xml:space="preserve">28070.5930832863</t>
   </si>
   <si>
-    <t xml:space="preserve">22577.8728027172</t>
-  </si>
-  <si>
     <t xml:space="preserve">23936.5814609027</t>
   </si>
   <si>
@@ -2513,6 +2579,9 @@
     <t xml:space="preserve">41206.649625932</t>
   </si>
   <si>
+    <t xml:space="preserve">16619.0005953067</t>
+  </si>
+  <si>
     <t xml:space="preserve">22018.5823576393</t>
   </si>
   <si>
@@ -2522,76 +2591,79 @@
     <t xml:space="preserve">29416.7099791274</t>
   </si>
   <si>
-    <t xml:space="preserve">24061.5037208913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28546.2666101023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32217.2035380482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33747.62647243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37353.8455040954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29545.4430436129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28054.8996464607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36860.0532007993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40327.7448712469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28664.23772122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20694.0877095038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26698.0066211727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28369.5598456016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33350.1863588947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23485.4085299502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36657.7660291962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32461.5062279801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29139.7243563412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24461.0234975948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25798.9012234691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34507.8906084086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29110.9302001311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26678.9430831053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29476.337078722</t>
+    <t xml:space="preserve">23648.6598974392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28056.4738694115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31664.4253890236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33168.5895466033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36712.9335903001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29038.5065772473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27573.5377095276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36227.6137043911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39635.8072194287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47150.2324786527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28172.4208491559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20339.021526112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26239.9260597959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27882.7990141851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32777.968653428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23082.4492650053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36028.7973470116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31904.5363685055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28639.7491529142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24041.3247712209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25356.2473833139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33915.8091797789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28611.4490426989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26221.1896111754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28970.5863225722</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_324_6195a4_7743</t>
@@ -2609,30 +2681,33 @@
     <t xml:space="preserve">13358.0131349084</t>
   </si>
   <si>
+    <t xml:space="preserve">9386.09600366316</t>
+  </si>
+  <si>
     <t xml:space="preserve">6262.29442622135</t>
   </si>
   <si>
     <t xml:space="preserve">9270.83817995727</t>
   </si>
   <si>
+    <t xml:space="preserve">7422.30696540431</t>
+  </si>
+  <si>
     <t xml:space="preserve">7871.13027010135</t>
   </si>
   <si>
     <t xml:space="preserve">15280.0318437607</t>
   </si>
   <si>
-    <t xml:space="preserve">10154.6293961812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7034.29726875625</t>
-  </si>
-  <si>
     <t xml:space="preserve">12933.0522087872</t>
   </si>
   <si>
     <t xml:space="preserve">11182.8664164417</t>
   </si>
   <si>
+    <t xml:space="preserve">8159.6949177392</t>
+  </si>
+  <si>
     <t xml:space="preserve">7921.74254502953</t>
   </si>
   <si>
@@ -2669,64 +2744,73 @@
     <t xml:space="preserve">6401.16822481704</t>
   </si>
   <si>
-    <t xml:space="preserve">10651.7987030675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9334.37412972031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12956.5699556999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9953.86617333499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13460.1810515223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8856.98511024461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483.16734314572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11654.1984988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9990.01478448718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10129.2630753753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11206.8906907638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14157.3844782566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12548.8059337369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12365.8186082683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10635.9816417731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11663.7727111173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13752.302378946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12104.2467524286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10445.5983882249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9562.17784952154</t>
+    <t xml:space="preserve">14234.8956551366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12474.3102499966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13302.1896388084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16426.4722955004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17987.9734971417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11836.3350996412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7327.61828918664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15574.4869200179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13350.4980721701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13536.5872901703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14079.4434549078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14976.7118257316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16770.0261751907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22150.1678780571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16525.4848017691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11640.2341968897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14213.7579840847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15587.2817461496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18378.3598281676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16175.9243023648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15897.2294252747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13959.3328091175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12778.7435454069</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_149_432a4_1341</t>
@@ -2744,12 +2828,18 @@
     <t xml:space="preserve">11525.1069401202</t>
   </si>
   <si>
+    <t xml:space="preserve">30683.5054241811</t>
+  </si>
+  <si>
     <t xml:space="preserve">25244.3286782929</t>
   </si>
   <si>
     <t xml:space="preserve">25574.091301714</t>
   </si>
   <si>
+    <t xml:space="preserve">26464.5567558178</t>
+  </si>
+  <si>
     <t xml:space="preserve">18099.1932247558</t>
   </si>
   <si>
@@ -2759,18 +2849,15 @@
     <t xml:space="preserve">22059.9000214761</t>
   </si>
   <si>
-    <t xml:space="preserve">29701.4415012969</t>
-  </si>
-  <si>
     <t xml:space="preserve">29170.7768326518</t>
   </si>
   <si>
-    <t xml:space="preserve">29683.8772327891</t>
-  </si>
-  <si>
     <t xml:space="preserve">16959.1407839632</t>
   </si>
   <si>
+    <t xml:space="preserve">10417.5211253388</t>
+  </si>
+  <si>
     <t xml:space="preserve">27811.9070097634</t>
   </si>
   <si>
@@ -2783,85 +2870,91 @@
     <t xml:space="preserve">22814.4787718428</t>
   </si>
   <si>
-    <t xml:space="preserve">22928.4320240841</t>
+    <t xml:space="preserve">14385.2512731376</t>
   </si>
   <si>
     <t xml:space="preserve">17341.9632534846</t>
   </si>
   <si>
-    <t xml:space="preserve">18087.0355961477</t>
-  </si>
-  <si>
     <t xml:space="preserve">26834.829472349</t>
   </si>
   <si>
     <t xml:space="preserve">16344.5273799723</t>
   </si>
   <si>
-    <t xml:space="preserve">31969.7032754869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34085.032464388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29080.9739967236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23525.8794442247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36791.9211158382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34470.4541532238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20327.3620432189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20506.3705051324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22051.7107172244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13160.2328960691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26833.1433489478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22298.1145089556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12577.0745748389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16748.5680080515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10710.239242708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20459.1630380065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20479.0406054601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20469.333916732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29199.9581402752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23065.9018216184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12959.8048463836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22076.1481977819</t>
+    <t xml:space="preserve">11959.9872782032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31619.6119095168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33711.7767143496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28762.5163049983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23268.2540543578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36389.0229779006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34092.9777570207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20104.7627315219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20281.8109213487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13016.1188305938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26539.3010280681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22053.9340328426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28511.9451016254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12439.3465146229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16565.1590786206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13639.7765320542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10592.9543791596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25079.4044263394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20235.1204101203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20254.7803038382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20245.1799103699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28880.1974861487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22813.3135192973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12817.8856129681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21834.398413265</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_461_5891a7_1505</t>
@@ -2888,9 +2981,6 @@
     <t xml:space="preserve">19931.7408663416</t>
   </si>
   <si>
-    <t xml:space="preserve">18158.7454648092</t>
-  </si>
-  <si>
     <t xml:space="preserve">15871.5445941479</t>
   </si>
   <si>
@@ -2915,6 +3005,9 @@
     <t xml:space="preserve">17746.088668535</t>
   </si>
   <si>
+    <t xml:space="preserve">16313.3512006901</t>
+  </si>
+  <si>
     <t xml:space="preserve">23345.7273647615</t>
   </si>
   <si>
@@ -2945,73 +3038,76 @@
     <t xml:space="preserve">15088.637974342</t>
   </si>
   <si>
-    <t xml:space="preserve">21370.1253934595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21474.7686120144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20310.900295734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24784.4533843615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28693.370760821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34807.0060818888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25014.2974177009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28179.5829014536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23816.1529549859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30269.0577268834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31310.4757626482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27678.2162110351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20043.5844356876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25002.1506513202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26860.2849665054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24204.313607184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30959.7042518344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22924.152494504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21189.9131252497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33262.9531894102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32129.3458860302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21477.7357682585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31357.5547858845</t>
+    <t xml:space="preserve">22902.0653205832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23014.2099983788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21766.9085570795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26561.153006492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30750.2852385302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37302.1829411132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26807.4736512317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30199.6659557927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25523.4389418709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32438.9269828878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33555.0001664554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29662.3582665715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26922.6999971968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21480.4298783027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26794.4561311207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28785.792760049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25939.4252988926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33179.0832307637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24567.494489706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22708.9343462851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35647.4429921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29265.3430841397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23017.3898583407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33605.4540990148</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_458_263a4_3477</t>
@@ -3032,18 +3128,9 @@
     <t xml:space="preserve">13787.5903472635</t>
   </si>
   <si>
-    <t xml:space="preserve">11090.734633219</t>
-  </si>
-  <si>
     <t xml:space="preserve">6473.27236991137</t>
   </si>
   <si>
-    <t xml:space="preserve">11915.8156695711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8558.56226540958</t>
-  </si>
-  <si>
     <t xml:space="preserve">9629.65978282123</t>
   </si>
   <si>
@@ -3053,15 +3140,24 @@
     <t xml:space="preserve">12995.1569898975</t>
   </si>
   <si>
+    <t xml:space="preserve">13909.3759644134</t>
+  </si>
+  <si>
     <t xml:space="preserve">16986.1578070645</t>
   </si>
   <si>
+    <t xml:space="preserve">7952.84542463423</t>
+  </si>
+  <si>
     <t xml:space="preserve">14962.9758686202</t>
   </si>
   <si>
     <t xml:space="preserve">9776.32953231343</t>
   </si>
   <si>
+    <t xml:space="preserve">9852.65166340434</t>
+  </si>
+  <si>
     <t xml:space="preserve">8787.3614061585</t>
   </si>
   <si>
@@ -3089,73 +3185,76 @@
     <t xml:space="preserve">7507.62996211542</t>
   </si>
   <si>
-    <t xml:space="preserve">19026.4544612267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13928.4855002193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18584.3832146054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17321.185677699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7485.86938232322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17152.3524379415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10695.3662647998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19423.5138363572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22180.9842060626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15647.7720271008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14857.298591368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15447.3345910938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17322.7133332147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17246.2610003079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7623.10771426938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12011.136522333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13285.3521620235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14765.2053928555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13452.1789897281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13739.0278457051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16896.6699858738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15611.3707651787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12787.3018303131</t>
+    <t xml:space="preserve">22345.0318323036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16357.8796308281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21825.8549095601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20342.3315747117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8791.54810379183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20144.0505904946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12560.8425958773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17822.3470942906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22811.3459527134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26049.7718671825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18377.0425941804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17448.695480427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18141.6450377366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20344.1256825522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20254.3386013103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8952.72342430141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14106.1083388192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15602.5715442013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17340.5394676243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15798.4961597485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16135.3769396609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19843.7722311158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18334.2922563261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15017.6517138232</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_226_7218a3_1371</t>
@@ -3167,15 +3266,12 @@
     <t xml:space="preserve">3.13714062864892</t>
   </si>
   <si>
-    <t xml:space="preserve">24837.4287239693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17547.8228556482</t>
-  </si>
-  <si>
     <t xml:space="preserve">15098.868659561</t>
   </si>
   <si>
+    <t xml:space="preserve">24627.1772507115</t>
+  </si>
+  <si>
     <t xml:space="preserve">35872.6841551537</t>
   </si>
   <si>
@@ -3194,9 +3290,6 @@
     <t xml:space="preserve">18572.560478077</t>
   </si>
   <si>
-    <t xml:space="preserve">33703.53638389</t>
-  </si>
-  <si>
     <t xml:space="preserve">31317.1497281905</t>
   </si>
   <si>
@@ -3218,6 +3311,9 @@
     <t xml:space="preserve">26660.7838826506</t>
   </si>
   <si>
+    <t xml:space="preserve">21350.8656309133</t>
+  </si>
+  <si>
     <t xml:space="preserve">29924.4618180681</t>
   </si>
   <si>
@@ -3227,70 +3323,79 @@
     <t xml:space="preserve">40699.7440590479</t>
   </si>
   <si>
+    <t xml:space="preserve">31060.5583154589</t>
+  </si>
+  <si>
     <t xml:space="preserve">27469.4759000572</t>
   </si>
   <si>
-    <t xml:space="preserve">41702.5690690296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42037.8665734165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42249.8899435936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37570.7503417113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40188.9536855542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48927.1417781856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39407.9924322589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33807.2024587257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52682.0993603618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42592.000915865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37281.4130040153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35084.6315175385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36413.4974649631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38694.6785303395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35097.1126181347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47007.8213739706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34303.0808539602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48731.0671673934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38445.324019518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37123.7370306776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37274.4659001085</t>
+    <t xml:space="preserve">40303.2911011807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40627.3381137865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40832.2473028188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36310.1104252187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26594.7568848801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38840.4632040683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47285.4522360686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43665.4266943972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38085.706136747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46321.3884753491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32672.843722294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50914.4168750703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41162.8791658472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36030.4814429298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33907.4102338491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35191.6877330326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45430.5322468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33152.0835331757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47095.9566655865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37155.3388682848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41465.6254251065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35878.0960912607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36023.7674404758</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_280_3779a4_0424</t>
@@ -3344,7 +3449,7 @@
     <t xml:space="preserve">11767.7141638414</t>
   </si>
   <si>
-    <t xml:space="preserve">9411.31033203939</t>
+    <t xml:space="preserve">13860.0233428653</t>
   </si>
   <si>
     <t xml:space="preserve">4531.75080153377</t>
@@ -3353,9 +3458,15 @@
     <t xml:space="preserve">12583.6405177895</t>
   </si>
   <si>
+    <t xml:space="preserve">14997.2293067761</t>
+  </si>
+  <si>
     <t xml:space="preserve">6660.32160910049</t>
   </si>
   <si>
+    <t xml:space="preserve">13373.8344173471</t>
+  </si>
+  <si>
     <t xml:space="preserve">15067.9643328864</t>
   </si>
   <si>
@@ -3365,76 +3476,70 @@
     <t xml:space="preserve">14220.3835074426</t>
   </si>
   <si>
-    <t xml:space="preserve">10912.323658469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13394.2963042821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17873.7580269608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16279.8417099153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17537.6288995818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18710.1719765426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14048.7744877905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19136.817731588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22674.0084060695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17925.9275889535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10588.8072422384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13975.7214689066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12810.8718390994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15949.3517359817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16155.2774616705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16105.1827872595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18415.2559111654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15839.8053904056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14947.0814003215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15198.5329690347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18397.3004985019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16246.2305974891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11573.9413297315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13892.2988714958</t>
+    <t xml:space="preserve">13156.3044511729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21549.269399354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19627.5844316919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21144.0195851887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22557.6812566549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16937.7265660368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23072.0612935613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27336.6303140386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21612.1669693071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12766.2609920442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15445.2649568676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19229.1333912706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19477.4051275463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19417.0091194585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22202.1194473574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18020.7588881837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15061.9155083751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18323.9182790023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22180.4717320825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19587.0616207983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13953.975395129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16749.0737262212</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_447_3232a2_2393</t>
@@ -3446,9 +3551,6 @@
     <t xml:space="preserve">2.23926028888673</t>
   </si>
   <si>
-    <t xml:space="preserve">3259.82586428827</t>
-  </si>
-  <si>
     <t xml:space="preserve">5282.64820635478</t>
   </si>
   <si>
@@ -3485,7 +3587,7 @@
     <t xml:space="preserve">2685.98780989973</t>
   </si>
   <si>
-    <t xml:space="preserve">4867.19247941045</t>
+    <t xml:space="preserve">4391.16774349769</t>
   </si>
   <si>
     <t xml:space="preserve">4079.79887137971</t>
@@ -3515,67 +3617,76 @@
     <t xml:space="preserve">2399.94038925214</t>
   </si>
   <si>
-    <t xml:space="preserve">5902.2132086359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5408.77970592511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5770.57872429561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5452.8342484615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5668.99604507328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6220.61710321525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4402.76457107226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3480.4542971691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4753.5997174378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4856.58779863128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5955.36556950722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4428.96228313944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5531.90656085803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5466.36826726912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3745.62769390143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6411.62173930268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3804.21716680459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6284.65463485579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3619.57791727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4319.74059308977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4806.57983588701</t>
+    <t xml:space="preserve">2294.67348486778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12027.3089482499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11021.8086430701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11759.0691277894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111.5813393332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11552.0677498977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12676.1404755198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8971.78869194618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9686.70740905875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9896.57266243338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12135.6208378632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9025.17340809101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10909.1422477625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11272.7119350653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11139.160455803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7632.69978349106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13065.3625668889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10522.1716409478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7752.09121629974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7375.84027117776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10492.9985933568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10073.4701432165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8802.6055401334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9794.66830951743</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_453_282a5_128</t>
@@ -3596,7 +3707,7 @@
     <t xml:space="preserve">25383.5465491088</t>
   </si>
   <si>
-    <t xml:space="preserve">27191.7392447701</t>
+    <t xml:space="preserve">26861.3239781008</t>
   </si>
   <si>
     <t xml:space="preserve">21404.7278517612</t>
@@ -3638,18 +3749,12 @@
     <t xml:space="preserve">33249.5533748844</t>
   </si>
   <si>
-    <t xml:space="preserve">16408.6539822499</t>
-  </si>
-  <si>
     <t xml:space="preserve">18176.6577048183</t>
   </si>
   <si>
     <t xml:space="preserve">16993.2874287861</t>
   </si>
   <si>
-    <t xml:space="preserve">20887.6422103424</t>
-  </si>
-  <si>
     <t xml:space="preserve">35295.2856482855</t>
   </si>
   <si>
@@ -3659,61 +3764,76 @@
     <t xml:space="preserve">19821.0150041315</t>
   </si>
   <si>
-    <t xml:space="preserve">39052.2546346405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21164.5884302553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32901.4168801145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36590.6622043717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28758.0528822852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20936.1593210749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34710.1259815643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37732.866371104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37463.7738404119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39380.1690298504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36859.4942903539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39102.9073761028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41798.2745172208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40694.6052128192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40750.6519194419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31139.3407637501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30007.69694424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40004.1861301228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41101.9458760531</t>
+    <t xml:space="preserve">20709.9120819403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32194.599635322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35804.5893389183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28140.2470358708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20486.3902882767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33964.4524532149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36922.2556687222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27478.7891273067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36658.9440210185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38534.169519417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30315.5963746092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37549.1242741809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19704.185459295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36067.646137015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38262.8642449616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40900.3271327968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39820.367825437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39875.2104872948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31421.4773369747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32255.5836129061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30470.3779916152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29363.045142344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39144.7809341798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40218.9576374134</t>
   </si>
   <si>
     <t xml:space="preserve">RP_pos_153_9636a7_9986</t>
@@ -3725,12 +3845,15 @@
     <t xml:space="preserve">7.99864242330659</t>
   </si>
   <si>
-    <t xml:space="preserve">12570.3650404551</t>
+    <t xml:space="preserve">7826.64495004299</t>
   </si>
   <si>
     <t xml:space="preserve">8799.51753875779</t>
   </si>
   <si>
+    <t xml:space="preserve">6834.31216541255</t>
+  </si>
+  <si>
     <t xml:space="preserve">7979.73998778672</t>
   </si>
   <si>
@@ -3746,6 +3869,9 @@
     <t xml:space="preserve">7919.09203185473</t>
   </si>
   <si>
+    <t xml:space="preserve">5072.79921681772</t>
+  </si>
+  <si>
     <t xml:space="preserve">6147.84557042566</t>
   </si>
   <si>
@@ -3758,9 +3884,6 @@
     <t xml:space="preserve">8559.52450983584</t>
   </si>
   <si>
-    <t xml:space="preserve">7300.91915561881</t>
-  </si>
-  <si>
     <t xml:space="preserve">2517.8793613205</t>
   </si>
   <si>
@@ -3782,64 +3905,70 @@
     <t xml:space="preserve">8864.19855538149</t>
   </si>
   <si>
-    <t xml:space="preserve">7301.96226589391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11159.8852875375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13210.015741002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8207.44005199402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11396.9633055102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9182.04456191159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11956.6383646508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8126.93657683819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11837.5446753944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7720.39200926529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9423.60733323223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10070.6467821595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8645.89645510025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9659.90896654051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7684.04919783522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7563.98361886015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11408.4242531349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7242.04053590482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10425.3000394879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9225.66442537409</t>
+    <t xml:space="preserve">15303.3435801008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18607.7875717116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10638.6013495874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14772.9070739593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11901.8976744877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15498.365901777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10534.2515920487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15343.994955998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10007.282700671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12337.742775009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16190.0322170081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12215.0147985485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13053.7165997175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11206.9348192529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12521.312360163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9960.17462796154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9804.54390480897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14787.7629184242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9387.23666952958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15214.6649802122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11958.4383662699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10615.1498966942</t>
   </si>
 </sst>
 </file>
@@ -4534,49 +4663,49 @@
         <v>110</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
         <v>103</v>
       </c>
       <c r="V3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="Z3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
         <v>103</v>
       </c>
       <c r="AB3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
         <v>103</v>
@@ -4609,49 +4738,49 @@
         <v>110</v>
       </c>
       <c r="AQ3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="AR3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="AS3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="AT3" t="s">
         <v>103</v>
       </c>
       <c r="AU3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AV3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AX3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AY3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AZ3" t="s">
         <v>103</v>
       </c>
       <c r="BA3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="BB3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="BC3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="BD3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="BE3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="BF3" t="s">
         <v>103</v>
@@ -6003,147 +6132,147 @@
         <v>338</v>
       </c>
       <c r="M12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S12" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="T12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="U12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="V12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="X12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Y12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Z12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AB12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AC12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AD12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AE12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AH12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AI12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AJ12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AK12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AN12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AO12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>368</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>365</v>
       </c>
-      <c r="AP12" t="s">
-        <v>336</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>366</v>
-      </c>
       <c r="AR12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AS12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AT12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AU12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AV12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AW12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AX12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AY12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AZ12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="BA12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="BB12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="BC12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BD12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="BE12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BF12" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s">
         <v>330</v>
@@ -6152,10 +6281,10 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
         <v>333</v>
@@ -6165,10 +6294,10 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J13" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="K13" t="s">
         <v>387</v>
@@ -6204,120 +6333,120 @@
         <v>397</v>
       </c>
       <c r="V13" t="s">
+        <v>365</v>
+      </c>
+      <c r="W13" t="s">
         <v>398</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>399</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>400</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>401</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>402</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>403</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>404</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>405</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>406</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>336</v>
       </c>
       <c r="AF13" t="s">
         <v>407</v>
       </c>
       <c r="AG13" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="AH13" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="AI13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AJ13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AK13" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AN13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AO13" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AP13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AQ13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AR13" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="AS13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AT13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AU13" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="AV13" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="AW13" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="AX13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AY13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AZ13" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="BA13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="BB13" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="BC13" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="BD13" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="BE13" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="BF13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s">
         <v>330</v>
@@ -6326,10 +6455,10 @@
         <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F14" t="s">
         <v>333</v>
@@ -6339,159 +6468,159 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J14" t="s">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="K14" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L14" t="s">
-        <v>336</v>
+        <v>438</v>
       </c>
       <c r="M14" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N14" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O14" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P14" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q14" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="R14" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="S14" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="T14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="U14" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="V14" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="W14" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="X14" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Y14" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Z14" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AA14" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AB14" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AC14" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AD14" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AE14" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AF14" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AG14" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AH14" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AI14" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AJ14" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AK14" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AL14" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AM14" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AN14" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AO14" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AP14" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AQ14" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AR14" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AS14" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AT14" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AU14" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AV14" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AW14" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AX14" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AY14" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AZ14" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="BA14" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="BB14" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="BC14" t="s">
-        <v>336</v>
+        <v>481</v>
       </c>
       <c r="BD14" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="BE14" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BF14" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>330</v>
@@ -6500,10 +6629,10 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E15" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F15" t="s">
         <v>333</v>
@@ -6513,159 +6642,159 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>336</v>
+        <v>488</v>
       </c>
       <c r="J15" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K15" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="L15" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M15" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="N15" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="O15" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="P15" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Q15" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="R15" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="S15" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="T15" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="U15" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="V15" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="W15" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="X15" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="Y15" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="Z15" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="AA15" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="AB15" t="s">
-        <v>336</v>
+        <v>507</v>
       </c>
       <c r="AC15" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AD15" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="AE15" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AF15" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="AG15" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AH15" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AI15" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AJ15" t="s">
-        <v>508</v>
+        <v>365</v>
       </c>
       <c r="AK15" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AL15" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AM15" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="AN15" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AO15" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="AP15" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AQ15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="AR15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AS15" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="AT15" t="s">
-        <v>336</v>
+        <v>524</v>
       </c>
       <c r="AU15" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AV15" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AW15" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="AX15" t="s">
-        <v>521</v>
+        <v>365</v>
       </c>
       <c r="AY15" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AZ15" t="s">
-        <v>523</v>
+        <v>365</v>
       </c>
       <c r="BA15" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="BB15" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="BC15" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="BD15" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="BE15" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="BF15" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s">
         <v>330</v>
@@ -6674,10 +6803,10 @@
         <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E16" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F16" t="s">
         <v>333</v>
@@ -6687,159 +6816,159 @@
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>336</v>
+        <v>538</v>
       </c>
       <c r="J16" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="K16" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L16" t="s">
-        <v>336</v>
+        <v>541</v>
       </c>
       <c r="M16" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="N16" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="O16" t="s">
-        <v>336</v>
+        <v>544</v>
       </c>
       <c r="P16" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="Q16" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="R16" t="s">
-        <v>539</v>
+        <v>365</v>
       </c>
       <c r="S16" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="T16" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="U16" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="V16" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="W16" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="X16" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="Y16" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="Z16" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AA16" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="AB16" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AC16" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AD16" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AE16" t="s">
-        <v>336</v>
+        <v>557</v>
       </c>
       <c r="AF16" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="AG16" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AH16" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="AI16" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="AJ16" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
       <c r="AK16" t="s">
-        <v>554</v>
+        <v>365</v>
       </c>
       <c r="AL16" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AM16" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="AN16" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="AO16" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AP16" t="s">
-        <v>336</v>
+        <v>567</v>
       </c>
       <c r="AQ16" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="AR16" t="s">
-        <v>336</v>
+        <v>569</v>
       </c>
       <c r="AS16" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AT16" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="AU16" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="AV16" t="s">
-        <v>562</v>
+        <v>365</v>
       </c>
       <c r="AW16" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="AX16" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="AY16" t="s">
-        <v>336</v>
+        <v>574</v>
       </c>
       <c r="AZ16" t="s">
-        <v>565</v>
+        <v>365</v>
       </c>
       <c r="BA16" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="BB16" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="BC16" t="s">
-        <v>336</v>
+        <v>577</v>
       </c>
       <c r="BD16" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="BE16" t="s">
-        <v>336</v>
+        <v>579</v>
       </c>
       <c r="BF16" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="B17" t="s">
         <v>330</v>
@@ -6848,10 +6977,10 @@
         <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="E17" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F17" t="s">
         <v>333</v>
@@ -6861,171 +6990,171 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>336</v>
+        <v>584</v>
       </c>
       <c r="J17" t="s">
-        <v>336</v>
+        <v>585</v>
       </c>
       <c r="K17" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="L17" t="s">
-        <v>574</v>
+        <v>365</v>
       </c>
       <c r="M17" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="N17" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="O17" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="P17" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="Q17" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="R17" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="S17" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="T17" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="U17" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="V17" t="s">
-        <v>336</v>
+        <v>595</v>
       </c>
       <c r="W17" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="X17" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="Y17" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="Z17" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="AA17" t="s">
-        <v>586</v>
+        <v>365</v>
       </c>
       <c r="AB17" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="AC17" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="AD17" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="AE17" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="AF17" t="s">
-        <v>336</v>
+        <v>604</v>
       </c>
       <c r="AG17" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="AH17" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="AI17" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="AJ17" t="s">
-        <v>336</v>
+        <v>608</v>
       </c>
       <c r="AK17" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AL17" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="AM17" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="AN17" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="AO17" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="AP17" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="AQ17" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="AR17" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="AS17" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="AT17" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="AU17" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="AV17" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="AW17" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="AX17" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="AY17" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="AZ17" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="BA17" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="BB17" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="BC17" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="BD17" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="BE17" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="BF17" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B18" t="s">
         <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="D18" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="E18" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="F18" t="s">
         <v>333</v>
@@ -7035,159 +7164,159 @@
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="J18" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="K18" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="L18" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="M18" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="N18" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="O18" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="P18" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="Q18" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="R18" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="S18" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="T18" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="U18" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="V18" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="W18" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="X18" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="Y18" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="Z18" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="AA18" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="AB18" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="AC18" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="AD18" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="AE18" t="s">
-        <v>336</v>
+        <v>656</v>
       </c>
       <c r="AF18" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="AG18" t="s">
-        <v>336</v>
+        <v>658</v>
       </c>
       <c r="AH18" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="AI18" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="AJ18" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="AK18" t="s">
-        <v>336</v>
+        <v>662</v>
       </c>
       <c r="AL18" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="AM18" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="AN18" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="AO18" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="AP18" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="AQ18" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="AR18" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="AS18" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="AT18" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="AU18" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="AV18" t="s">
-        <v>336</v>
+        <v>673</v>
       </c>
       <c r="AW18" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="AX18" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="AY18" t="s">
-        <v>336</v>
+        <v>676</v>
       </c>
       <c r="AZ18" t="s">
-        <v>657</v>
+        <v>365</v>
       </c>
       <c r="BA18" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="BB18" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="BC18" t="s">
-        <v>660</v>
+        <v>365</v>
       </c>
       <c r="BD18" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="BE18" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="BF18" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="B19" t="s">
         <v>330</v>
@@ -7196,10 +7325,10 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="E19" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="F19" t="s">
         <v>333</v>
@@ -7209,159 +7338,159 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="J19" t="s">
-        <v>336</v>
+        <v>686</v>
       </c>
       <c r="K19" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="L19" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="M19" t="s">
-        <v>336</v>
+        <v>689</v>
       </c>
       <c r="N19" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="O19" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="P19" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="Q19" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="R19" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="S19" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="T19" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="U19" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="V19" t="s">
-        <v>336</v>
+        <v>698</v>
       </c>
       <c r="W19" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="X19" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="Y19" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="Z19" t="s">
-        <v>681</v>
+        <v>702</v>
       </c>
       <c r="AA19" t="s">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="AB19" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="AC19" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="AD19" t="s">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="AE19" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="AF19" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="AG19" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="AH19" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="AI19" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="AJ19" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="AK19" t="s">
-        <v>692</v>
+        <v>365</v>
       </c>
       <c r="AL19" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="AM19" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="AN19" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="AO19" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="AP19" t="s">
-        <v>336</v>
+        <v>717</v>
       </c>
       <c r="AQ19" t="s">
-        <v>697</v>
+        <v>365</v>
       </c>
       <c r="AR19" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="AS19" t="s">
-        <v>699</v>
+        <v>365</v>
       </c>
       <c r="AT19" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="AU19" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="AV19" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="AW19" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="AX19" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="AY19" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="AZ19" t="s">
-        <v>336</v>
+        <v>725</v>
       </c>
       <c r="BA19" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="BB19" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="BC19" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="BD19" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="BE19" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="BF19" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="B20" t="s">
         <v>330</v>
@@ -7370,10 +7499,10 @@
         <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="E20" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="F20" t="s">
         <v>333</v>
@@ -7383,171 +7512,171 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="J20" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="K20" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="L20" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="M20" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="N20" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="O20" t="s">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="P20" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="Q20" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="R20" t="s">
-        <v>336</v>
+        <v>743</v>
       </c>
       <c r="S20" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="T20" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="U20" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="V20" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="W20" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="X20" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="Y20" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="Z20" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="AA20" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="AB20" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="AC20" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="AD20" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="AE20" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="AF20" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="AG20" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="AH20" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="AI20" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="AJ20" t="s">
-        <v>336</v>
+        <v>761</v>
       </c>
       <c r="AK20" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="AL20" t="s">
-        <v>741</v>
+        <v>365</v>
       </c>
       <c r="AM20" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
       <c r="AN20" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="AO20" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="AP20" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="AQ20" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="AR20" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="AS20" t="s">
-        <v>748</v>
+        <v>365</v>
       </c>
       <c r="AT20" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="AU20" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="AV20" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="AW20" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="AX20" t="s">
-        <v>336</v>
+        <v>773</v>
       </c>
       <c r="AY20" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="AZ20" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="BA20" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
       <c r="BB20" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
       <c r="BC20" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="BD20" t="s">
-        <v>336</v>
+        <v>779</v>
       </c>
       <c r="BE20" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="BF20" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="B21" t="s">
         <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="E21" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="F21" t="s">
         <v>333</v>
@@ -7557,171 +7686,171 @@
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="J21" t="s">
-        <v>764</v>
+        <v>365</v>
       </c>
       <c r="K21" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="L21" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="M21" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="N21" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="O21" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="P21" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="Q21" t="s">
-        <v>771</v>
+        <v>365</v>
       </c>
       <c r="R21" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="S21" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="T21" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="U21" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="V21" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="W21" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="X21" t="s">
-        <v>336</v>
+        <v>798</v>
       </c>
       <c r="Y21" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="Z21" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="AA21" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="AB21" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="AC21" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="AD21" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="AE21" t="s">
-        <v>784</v>
+        <v>365</v>
       </c>
       <c r="AF21" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="AG21" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="AH21" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="AI21" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="AJ21" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="AK21" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="AL21" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="AM21" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="AN21" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="AO21" t="s">
-        <v>336</v>
+        <v>814</v>
       </c>
       <c r="AP21" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="AQ21" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
       <c r="AR21" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
       <c r="AS21" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="AT21" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="AU21" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="AV21" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="AW21" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="AX21" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="AY21" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="AZ21" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="BA21" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="BB21" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="BC21" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="BD21" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="BE21" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="BF21" t="s">
-        <v>336</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="B22" t="s">
         <v>330</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
       <c r="E22" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="F22" t="s">
         <v>333</v>
@@ -7731,171 +7860,171 @@
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="J22" t="s">
-        <v>814</v>
+        <v>836</v>
       </c>
       <c r="K22" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="L22" t="s">
-        <v>336</v>
+        <v>838</v>
       </c>
       <c r="M22" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="N22" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="O22" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="P22" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="Q22" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="R22" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="S22" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="T22" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="U22" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="V22" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="W22" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
       <c r="X22" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="Y22" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="Z22" t="s">
-        <v>829</v>
+        <v>365</v>
       </c>
       <c r="AA22" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="AB22" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
       <c r="AC22" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="AD22" t="s">
-        <v>336</v>
+        <v>855</v>
       </c>
       <c r="AE22" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="AF22" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="AG22" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="AH22" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="AI22" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="AJ22" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="AK22" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="AL22" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="AM22" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="AN22" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="AO22" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="AP22" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="AQ22" t="s">
-        <v>336</v>
+        <v>868</v>
       </c>
       <c r="AR22" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="AS22" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="AT22" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="AU22" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="AV22" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="AW22" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="AX22" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="AY22" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="AZ22" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="BA22" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="BB22" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="BC22" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="BD22" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="BE22" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="BF22" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="B23" t="s">
         <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
       <c r="E23" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="F23" t="s">
         <v>333</v>
@@ -7905,171 +8034,171 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="J23" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="K23" t="s">
-        <v>336</v>
+        <v>889</v>
       </c>
       <c r="L23" t="s">
-        <v>865</v>
+        <v>890</v>
       </c>
       <c r="M23" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="N23" t="s">
-        <v>336</v>
+        <v>892</v>
       </c>
       <c r="O23" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="P23" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="Q23" t="s">
-        <v>869</v>
+        <v>365</v>
       </c>
       <c r="R23" t="s">
-        <v>870</v>
+        <v>365</v>
       </c>
       <c r="S23" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="T23" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="U23" t="s">
-        <v>336</v>
+        <v>897</v>
       </c>
       <c r="V23" t="s">
-        <v>873</v>
+        <v>898</v>
       </c>
       <c r="W23" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="X23" t="s">
-        <v>875</v>
+        <v>900</v>
       </c>
       <c r="Y23" t="s">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="Z23" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="AA23" t="s">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="AB23" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="AC23" t="s">
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="AD23" t="s">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="AE23" t="s">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="AF23" t="s">
-        <v>883</v>
+        <v>908</v>
       </c>
       <c r="AG23" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="AH23" t="s">
-        <v>885</v>
+        <v>910</v>
       </c>
       <c r="AI23" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="AJ23" t="s">
-        <v>887</v>
+        <v>365</v>
       </c>
       <c r="AK23" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
       <c r="AL23" t="s">
-        <v>336</v>
+        <v>913</v>
       </c>
       <c r="AM23" t="s">
-        <v>889</v>
+        <v>914</v>
       </c>
       <c r="AN23" t="s">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="AO23" t="s">
-        <v>891</v>
+        <v>916</v>
       </c>
       <c r="AP23" t="s">
-        <v>892</v>
+        <v>917</v>
       </c>
       <c r="AQ23" t="s">
-        <v>893</v>
+        <v>918</v>
       </c>
       <c r="AR23" t="s">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="AS23" t="s">
-        <v>336</v>
+        <v>920</v>
       </c>
       <c r="AT23" t="s">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="AU23" t="s">
-        <v>896</v>
+        <v>365</v>
       </c>
       <c r="AV23" t="s">
-        <v>897</v>
+        <v>922</v>
       </c>
       <c r="AW23" t="s">
-        <v>336</v>
+        <v>923</v>
       </c>
       <c r="AX23" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="AY23" t="s">
-        <v>336</v>
+        <v>925</v>
       </c>
       <c r="AZ23" t="s">
-        <v>899</v>
+        <v>926</v>
       </c>
       <c r="BA23" t="s">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="BB23" t="s">
-        <v>901</v>
+        <v>928</v>
       </c>
       <c r="BC23" t="s">
-        <v>902</v>
+        <v>929</v>
       </c>
       <c r="BD23" t="s">
-        <v>336</v>
+        <v>930</v>
       </c>
       <c r="BE23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="BF23" t="s">
-        <v>904</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="B24" t="s">
         <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="E24" t="s">
-        <v>907</v>
+        <v>935</v>
       </c>
       <c r="F24" t="s">
         <v>333</v>
@@ -8079,171 +8208,171 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="J24" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="K24" t="s">
-        <v>336</v>
+        <v>938</v>
       </c>
       <c r="L24" t="s">
-        <v>910</v>
+        <v>939</v>
       </c>
       <c r="M24" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="N24" t="s">
-        <v>336</v>
+        <v>941</v>
       </c>
       <c r="O24" t="s">
-        <v>912</v>
+        <v>942</v>
       </c>
       <c r="P24" t="s">
-        <v>913</v>
+        <v>943</v>
       </c>
       <c r="Q24" t="s">
-        <v>914</v>
+        <v>944</v>
       </c>
       <c r="R24" t="s">
-        <v>915</v>
+        <v>365</v>
       </c>
       <c r="S24" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
       <c r="T24" t="s">
-        <v>917</v>
+        <v>365</v>
       </c>
       <c r="U24" t="s">
-        <v>918</v>
+        <v>946</v>
       </c>
       <c r="V24" t="s">
-        <v>336</v>
+        <v>947</v>
       </c>
       <c r="W24" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="X24" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="Y24" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="Z24" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="AA24" t="s">
-        <v>336</v>
+        <v>952</v>
       </c>
       <c r="AB24" t="s">
-        <v>923</v>
+        <v>365</v>
       </c>
       <c r="AC24" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="AD24" t="s">
-        <v>925</v>
+        <v>365</v>
       </c>
       <c r="AE24" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
       <c r="AF24" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="AG24" t="s">
-        <v>336</v>
+        <v>956</v>
       </c>
       <c r="AH24" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="AI24" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
       <c r="AJ24" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="AK24" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="AL24" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="AM24" t="s">
-        <v>933</v>
+        <v>962</v>
       </c>
       <c r="AN24" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="AO24" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="AP24" t="s">
-        <v>936</v>
+        <v>365</v>
       </c>
       <c r="AQ24" t="s">
-        <v>937</v>
+        <v>965</v>
       </c>
       <c r="AR24" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="AS24" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="AT24" t="s">
-        <v>336</v>
+        <v>968</v>
       </c>
       <c r="AU24" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="AV24" t="s">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="AW24" t="s">
-        <v>336</v>
+        <v>971</v>
       </c>
       <c r="AX24" t="s">
-        <v>942</v>
+        <v>972</v>
       </c>
       <c r="AY24" t="s">
-        <v>336</v>
+        <v>973</v>
       </c>
       <c r="AZ24" t="s">
-        <v>943</v>
+        <v>974</v>
       </c>
       <c r="BA24" t="s">
-        <v>944</v>
+        <v>975</v>
       </c>
       <c r="BB24" t="s">
-        <v>945</v>
+        <v>976</v>
       </c>
       <c r="BC24" t="s">
-        <v>946</v>
+        <v>977</v>
       </c>
       <c r="BD24" t="s">
-        <v>947</v>
+        <v>978</v>
       </c>
       <c r="BE24" t="s">
-        <v>948</v>
+        <v>979</v>
       </c>
       <c r="BF24" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>950</v>
+        <v>981</v>
       </c>
       <c r="B25" t="s">
         <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>951</v>
+        <v>982</v>
       </c>
       <c r="E25" t="s">
-        <v>952</v>
+        <v>983</v>
       </c>
       <c r="F25" t="s">
         <v>333</v>
@@ -8253,171 +8382,171 @@
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>953</v>
+        <v>984</v>
       </c>
       <c r="J25" t="s">
-        <v>954</v>
+        <v>985</v>
       </c>
       <c r="K25" t="s">
-        <v>955</v>
+        <v>986</v>
       </c>
       <c r="L25" t="s">
-        <v>956</v>
+        <v>987</v>
       </c>
       <c r="M25" t="s">
-        <v>957</v>
+        <v>988</v>
       </c>
       <c r="N25" t="s">
-        <v>958</v>
+        <v>365</v>
       </c>
       <c r="O25" t="s">
-        <v>959</v>
+        <v>989</v>
       </c>
       <c r="P25" t="s">
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="Q25" t="s">
-        <v>961</v>
+        <v>991</v>
       </c>
       <c r="R25" t="s">
-        <v>962</v>
+        <v>992</v>
       </c>
       <c r="S25" t="s">
-        <v>963</v>
+        <v>993</v>
       </c>
       <c r="T25" t="s">
-        <v>964</v>
+        <v>994</v>
       </c>
       <c r="U25" t="s">
-        <v>965</v>
+        <v>995</v>
       </c>
       <c r="V25" t="s">
-        <v>966</v>
+        <v>996</v>
       </c>
       <c r="W25" t="s">
-        <v>336</v>
+        <v>997</v>
       </c>
       <c r="X25" t="s">
-        <v>967</v>
+        <v>998</v>
       </c>
       <c r="Y25" t="s">
-        <v>968</v>
+        <v>999</v>
       </c>
       <c r="Z25" t="s">
-        <v>969</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="s">
-        <v>970</v>
+        <v>1001</v>
       </c>
       <c r="AB25" t="s">
-        <v>971</v>
+        <v>1002</v>
       </c>
       <c r="AC25" t="s">
-        <v>972</v>
+        <v>1003</v>
       </c>
       <c r="AD25" t="s">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="AE25" t="s">
-        <v>974</v>
+        <v>1005</v>
       </c>
       <c r="AF25" t="s">
-        <v>975</v>
+        <v>1006</v>
       </c>
       <c r="AG25" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="AH25" t="s">
-        <v>977</v>
+        <v>1008</v>
       </c>
       <c r="AI25" t="s">
-        <v>978</v>
+        <v>1009</v>
       </c>
       <c r="AJ25" t="s">
-        <v>979</v>
+        <v>1010</v>
       </c>
       <c r="AK25" t="s">
-        <v>980</v>
+        <v>1011</v>
       </c>
       <c r="AL25" t="s">
-        <v>981</v>
+        <v>1012</v>
       </c>
       <c r="AM25" t="s">
-        <v>982</v>
+        <v>1013</v>
       </c>
       <c r="AN25" t="s">
-        <v>983</v>
+        <v>1014</v>
       </c>
       <c r="AO25" t="s">
-        <v>984</v>
+        <v>1015</v>
       </c>
       <c r="AP25" t="s">
-        <v>985</v>
+        <v>1016</v>
       </c>
       <c r="AQ25" t="s">
-        <v>986</v>
+        <v>1017</v>
       </c>
       <c r="AR25" t="s">
-        <v>987</v>
+        <v>1018</v>
       </c>
       <c r="AS25" t="s">
-        <v>988</v>
+        <v>1019</v>
       </c>
       <c r="AT25" t="s">
-        <v>336</v>
+        <v>1020</v>
       </c>
       <c r="AU25" t="s">
-        <v>989</v>
+        <v>1021</v>
       </c>
       <c r="AV25" t="s">
-        <v>990</v>
+        <v>1022</v>
       </c>
       <c r="AW25" t="s">
-        <v>991</v>
+        <v>1023</v>
       </c>
       <c r="AX25" t="s">
-        <v>992</v>
+        <v>1024</v>
       </c>
       <c r="AY25" t="s">
-        <v>993</v>
+        <v>1025</v>
       </c>
       <c r="AZ25" t="s">
-        <v>994</v>
+        <v>1026</v>
       </c>
       <c r="BA25" t="s">
-        <v>995</v>
+        <v>1027</v>
       </c>
       <c r="BB25" t="s">
-        <v>996</v>
+        <v>1028</v>
       </c>
       <c r="BC25" t="s">
-        <v>336</v>
+        <v>1029</v>
       </c>
       <c r="BD25" t="s">
-        <v>997</v>
+        <v>365</v>
       </c>
       <c r="BE25" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="BF25" t="s">
-        <v>999</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
       <c r="B26" t="s">
         <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
       <c r="E26" t="s">
-        <v>1002</v>
+        <v>1034</v>
       </c>
       <c r="F26" t="s">
         <v>333</v>
@@ -8427,171 +8556,171 @@
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="J26" t="s">
-        <v>1004</v>
+        <v>1036</v>
       </c>
       <c r="K26" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="L26" t="s">
-        <v>1006</v>
+        <v>365</v>
       </c>
       <c r="M26" t="s">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="N26" t="s">
-        <v>1008</v>
+        <v>365</v>
       </c>
       <c r="O26" t="s">
-        <v>1009</v>
+        <v>365</v>
       </c>
       <c r="P26" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
       <c r="Q26" t="s">
-        <v>1011</v>
+        <v>1040</v>
       </c>
       <c r="R26" t="s">
-        <v>1012</v>
+        <v>1041</v>
       </c>
       <c r="S26" t="s">
-        <v>336</v>
+        <v>1042</v>
       </c>
       <c r="T26" t="s">
-        <v>1013</v>
+        <v>1043</v>
       </c>
       <c r="U26" t="s">
-        <v>336</v>
+        <v>1044</v>
       </c>
       <c r="V26" t="s">
-        <v>1014</v>
+        <v>1045</v>
       </c>
       <c r="W26" t="s">
-        <v>1015</v>
+        <v>1046</v>
       </c>
       <c r="X26" t="s">
-        <v>336</v>
+        <v>1047</v>
       </c>
       <c r="Y26" t="s">
-        <v>1016</v>
+        <v>1048</v>
       </c>
       <c r="Z26" t="s">
-        <v>1017</v>
+        <v>1049</v>
       </c>
       <c r="AA26" t="s">
-        <v>1018</v>
+        <v>1050</v>
       </c>
       <c r="AB26" t="s">
-        <v>1019</v>
+        <v>1051</v>
       </c>
       <c r="AC26" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="AD26" t="s">
-        <v>1021</v>
+        <v>1053</v>
       </c>
       <c r="AE26" t="s">
-        <v>1022</v>
+        <v>1054</v>
       </c>
       <c r="AF26" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
       <c r="AG26" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
       <c r="AH26" t="s">
-        <v>1025</v>
+        <v>1057</v>
       </c>
       <c r="AI26" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
       <c r="AJ26" t="s">
-        <v>1027</v>
+        <v>1059</v>
       </c>
       <c r="AK26" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AL26" t="s">
-        <v>1028</v>
+        <v>1060</v>
       </c>
       <c r="AM26" t="s">
-        <v>1029</v>
+        <v>1061</v>
       </c>
       <c r="AN26" t="s">
-        <v>1030</v>
+        <v>1062</v>
       </c>
       <c r="AO26" t="s">
-        <v>1031</v>
+        <v>1063</v>
       </c>
       <c r="AP26" t="s">
-        <v>336</v>
+        <v>1064</v>
       </c>
       <c r="AQ26" t="s">
-        <v>1032</v>
+        <v>1065</v>
       </c>
       <c r="AR26" t="s">
-        <v>1033</v>
+        <v>1066</v>
       </c>
       <c r="AS26" t="s">
-        <v>1034</v>
+        <v>1067</v>
       </c>
       <c r="AT26" t="s">
-        <v>1035</v>
+        <v>1068</v>
       </c>
       <c r="AU26" t="s">
-        <v>1036</v>
+        <v>1069</v>
       </c>
       <c r="AV26" t="s">
-        <v>1037</v>
+        <v>1070</v>
       </c>
       <c r="AW26" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
       <c r="AX26" t="s">
-        <v>1039</v>
+        <v>1072</v>
       </c>
       <c r="AY26" t="s">
-        <v>1040</v>
+        <v>1073</v>
       </c>
       <c r="AZ26" t="s">
-        <v>1041</v>
+        <v>1074</v>
       </c>
       <c r="BA26" t="s">
-        <v>1042</v>
+        <v>1075</v>
       </c>
       <c r="BB26" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
       <c r="BC26" t="s">
-        <v>1044</v>
+        <v>1077</v>
       </c>
       <c r="BD26" t="s">
-        <v>1045</v>
+        <v>1078</v>
       </c>
       <c r="BE26" t="s">
-        <v>1046</v>
+        <v>1079</v>
       </c>
       <c r="BF26" t="s">
-        <v>1047</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1048</v>
+        <v>1081</v>
       </c>
       <c r="B27" t="s">
         <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
       <c r="E27" t="s">
-        <v>1050</v>
+        <v>1083</v>
       </c>
       <c r="F27" t="s">
         <v>333</v>
@@ -8601,171 +8730,171 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>1051</v>
+        <v>365</v>
       </c>
       <c r="J27" t="s">
-        <v>1052</v>
+        <v>365</v>
       </c>
       <c r="K27" t="s">
-        <v>1053</v>
+        <v>1084</v>
       </c>
       <c r="L27" t="s">
-        <v>336</v>
+        <v>1085</v>
       </c>
       <c r="M27" t="s">
-        <v>1054</v>
+        <v>1086</v>
       </c>
       <c r="N27" t="s">
-        <v>1055</v>
+        <v>1087</v>
       </c>
       <c r="O27" t="s">
-        <v>1056</v>
+        <v>1088</v>
       </c>
       <c r="P27" t="s">
-        <v>1057</v>
+        <v>1089</v>
       </c>
       <c r="Q27" t="s">
-        <v>1058</v>
+        <v>1090</v>
       </c>
       <c r="R27" t="s">
-        <v>1059</v>
+        <v>1091</v>
       </c>
       <c r="S27" t="s">
-        <v>1060</v>
+        <v>365</v>
       </c>
       <c r="T27" t="s">
-        <v>1061</v>
+        <v>1092</v>
       </c>
       <c r="U27" t="s">
-        <v>1062</v>
+        <v>1093</v>
       </c>
       <c r="V27" t="s">
-        <v>1063</v>
+        <v>1094</v>
       </c>
       <c r="W27" t="s">
-        <v>1064</v>
+        <v>1095</v>
       </c>
       <c r="X27" t="s">
-        <v>1065</v>
+        <v>1096</v>
       </c>
       <c r="Y27" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="Z27" t="s">
-        <v>1066</v>
+        <v>1097</v>
       </c>
       <c r="AA27" t="s">
-        <v>1067</v>
+        <v>1098</v>
       </c>
       <c r="AB27" t="s">
-        <v>336</v>
+        <v>1099</v>
       </c>
       <c r="AC27" t="s">
-        <v>1068</v>
+        <v>1100</v>
       </c>
       <c r="AD27" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
       <c r="AE27" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
       <c r="AF27" t="s">
-        <v>336</v>
+        <v>1103</v>
       </c>
       <c r="AG27" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
       <c r="AH27" t="s">
-        <v>1072</v>
+        <v>1105</v>
       </c>
       <c r="AI27" t="s">
-        <v>1073</v>
+        <v>1106</v>
       </c>
       <c r="AJ27" t="s">
-        <v>1074</v>
+        <v>1107</v>
       </c>
       <c r="AK27" t="s">
-        <v>1075</v>
+        <v>1108</v>
       </c>
       <c r="AL27" t="s">
-        <v>336</v>
+        <v>1109</v>
       </c>
       <c r="AM27" t="s">
-        <v>1076</v>
+        <v>1110</v>
       </c>
       <c r="AN27" t="s">
-        <v>1077</v>
+        <v>1111</v>
       </c>
       <c r="AO27" t="s">
-        <v>336</v>
+        <v>1112</v>
       </c>
       <c r="AP27" t="s">
-        <v>1078</v>
+        <v>1113</v>
       </c>
       <c r="AQ27" t="s">
-        <v>336</v>
+        <v>1114</v>
       </c>
       <c r="AR27" t="s">
-        <v>1079</v>
+        <v>1115</v>
       </c>
       <c r="AS27" t="s">
-        <v>1080</v>
+        <v>1116</v>
       </c>
       <c r="AT27" t="s">
-        <v>1081</v>
+        <v>1117</v>
       </c>
       <c r="AU27" t="s">
-        <v>1082</v>
+        <v>1118</v>
       </c>
       <c r="AV27" t="s">
-        <v>1083</v>
+        <v>1119</v>
       </c>
       <c r="AW27" t="s">
-        <v>1084</v>
+        <v>1120</v>
       </c>
       <c r="AX27" t="s">
-        <v>1085</v>
+        <v>365</v>
       </c>
       <c r="AY27" t="s">
-        <v>1086</v>
+        <v>365</v>
       </c>
       <c r="AZ27" t="s">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="BA27" t="s">
-        <v>1088</v>
+        <v>1122</v>
       </c>
       <c r="BB27" t="s">
-        <v>1089</v>
+        <v>1123</v>
       </c>
       <c r="BC27" t="s">
-        <v>1090</v>
+        <v>1124</v>
       </c>
       <c r="BD27" t="s">
-        <v>336</v>
+        <v>1125</v>
       </c>
       <c r="BE27" t="s">
-        <v>1091</v>
+        <v>1126</v>
       </c>
       <c r="BF27" t="s">
-        <v>1092</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1093</v>
+        <v>1128</v>
       </c>
       <c r="B28" t="s">
         <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>1094</v>
+        <v>1129</v>
       </c>
       <c r="E28" t="s">
-        <v>1095</v>
+        <v>1130</v>
       </c>
       <c r="F28" t="s">
         <v>333</v>
@@ -8775,171 +8904,171 @@
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>1096</v>
+        <v>1131</v>
       </c>
       <c r="J28" t="s">
-        <v>1097</v>
+        <v>1132</v>
       </c>
       <c r="K28" t="s">
-        <v>1098</v>
+        <v>1133</v>
       </c>
       <c r="L28" t="s">
-        <v>1099</v>
+        <v>1134</v>
       </c>
       <c r="M28" t="s">
-        <v>1100</v>
+        <v>1135</v>
       </c>
       <c r="N28" t="s">
-        <v>1101</v>
+        <v>1136</v>
       </c>
       <c r="O28" t="s">
-        <v>1102</v>
+        <v>1137</v>
       </c>
       <c r="P28" t="s">
-        <v>1103</v>
+        <v>1138</v>
       </c>
       <c r="Q28" t="s">
-        <v>1104</v>
+        <v>1139</v>
       </c>
       <c r="R28" t="s">
-        <v>1105</v>
+        <v>1140</v>
       </c>
       <c r="S28" t="s">
-        <v>1106</v>
+        <v>1141</v>
       </c>
       <c r="T28" t="s">
-        <v>1107</v>
+        <v>1142</v>
       </c>
       <c r="U28" t="s">
-        <v>1108</v>
+        <v>1143</v>
       </c>
       <c r="V28" t="s">
-        <v>1109</v>
+        <v>1144</v>
       </c>
       <c r="W28" t="s">
-        <v>336</v>
+        <v>1145</v>
       </c>
       <c r="X28" t="s">
-        <v>1110</v>
+        <v>365</v>
       </c>
       <c r="Y28" t="s">
-        <v>1111</v>
+        <v>1146</v>
       </c>
       <c r="Z28" t="s">
-        <v>1112</v>
+        <v>1147</v>
       </c>
       <c r="AA28" t="s">
-        <v>336</v>
+        <v>1148</v>
       </c>
       <c r="AB28" t="s">
-        <v>1113</v>
+        <v>1149</v>
       </c>
       <c r="AC28" t="s">
-        <v>336</v>
+        <v>1150</v>
       </c>
       <c r="AD28" t="s">
-        <v>1114</v>
+        <v>1151</v>
       </c>
       <c r="AE28" t="s">
-        <v>1115</v>
+        <v>1152</v>
       </c>
       <c r="AF28" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AG28" t="s">
-        <v>1116</v>
+        <v>1153</v>
       </c>
       <c r="AH28" t="s">
-        <v>1117</v>
+        <v>1154</v>
       </c>
       <c r="AI28" t="s">
-        <v>1118</v>
+        <v>365</v>
       </c>
       <c r="AJ28" t="s">
-        <v>1119</v>
+        <v>1155</v>
       </c>
       <c r="AK28" t="s">
-        <v>1120</v>
+        <v>1156</v>
       </c>
       <c r="AL28" t="s">
-        <v>1121</v>
+        <v>1157</v>
       </c>
       <c r="AM28" t="s">
-        <v>1122</v>
+        <v>1158</v>
       </c>
       <c r="AN28" t="s">
-        <v>1123</v>
+        <v>1159</v>
       </c>
       <c r="AO28" t="s">
-        <v>1124</v>
+        <v>1160</v>
       </c>
       <c r="AP28" t="s">
-        <v>1125</v>
+        <v>1161</v>
       </c>
       <c r="AQ28" t="s">
-        <v>1126</v>
+        <v>1162</v>
       </c>
       <c r="AR28" t="s">
-        <v>1127</v>
+        <v>1163</v>
       </c>
       <c r="AS28" t="s">
-        <v>1128</v>
+        <v>365</v>
       </c>
       <c r="AT28" t="s">
-        <v>1129</v>
+        <v>1164</v>
       </c>
       <c r="AU28" t="s">
-        <v>1130</v>
+        <v>1165</v>
       </c>
       <c r="AV28" t="s">
-        <v>1131</v>
+        <v>1166</v>
       </c>
       <c r="AW28" t="s">
-        <v>1132</v>
+        <v>1167</v>
       </c>
       <c r="AX28" t="s">
-        <v>1133</v>
+        <v>1168</v>
       </c>
       <c r="AY28" t="s">
-        <v>1134</v>
+        <v>365</v>
       </c>
       <c r="AZ28" t="s">
-        <v>1135</v>
+        <v>1169</v>
       </c>
       <c r="BA28" t="s">
-        <v>336</v>
+        <v>1170</v>
       </c>
       <c r="BB28" t="s">
-        <v>1136</v>
+        <v>1171</v>
       </c>
       <c r="BC28" t="s">
-        <v>1137</v>
+        <v>1172</v>
       </c>
       <c r="BD28" t="s">
-        <v>1138</v>
+        <v>1173</v>
       </c>
       <c r="BE28" t="s">
-        <v>1139</v>
+        <v>1174</v>
       </c>
       <c r="BF28" t="s">
-        <v>1140</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1141</v>
+        <v>1176</v>
       </c>
       <c r="B29" t="s">
         <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>1142</v>
+        <v>1177</v>
       </c>
       <c r="E29" t="s">
-        <v>1143</v>
+        <v>1178</v>
       </c>
       <c r="F29" t="s">
         <v>333</v>
@@ -8949,171 +9078,171 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>1144</v>
+        <v>365</v>
       </c>
       <c r="J29" t="s">
-        <v>1145</v>
+        <v>1179</v>
       </c>
       <c r="K29" t="s">
-        <v>1146</v>
+        <v>1180</v>
       </c>
       <c r="L29" t="s">
-        <v>1147</v>
+        <v>1181</v>
       </c>
       <c r="M29" t="s">
-        <v>1148</v>
+        <v>1182</v>
       </c>
       <c r="N29" t="s">
-        <v>1149</v>
+        <v>1183</v>
       </c>
       <c r="O29" t="s">
-        <v>1150</v>
+        <v>1184</v>
       </c>
       <c r="P29" t="s">
-        <v>1151</v>
+        <v>1185</v>
       </c>
       <c r="Q29" t="s">
-        <v>1152</v>
+        <v>1186</v>
       </c>
       <c r="R29" t="s">
-        <v>1153</v>
+        <v>1187</v>
       </c>
       <c r="S29" t="s">
-        <v>1154</v>
+        <v>1188</v>
       </c>
       <c r="T29" t="s">
-        <v>1155</v>
+        <v>1189</v>
       </c>
       <c r="U29" t="s">
-        <v>1156</v>
+        <v>1190</v>
       </c>
       <c r="V29" t="s">
-        <v>1157</v>
+        <v>365</v>
       </c>
       <c r="W29" t="s">
-        <v>336</v>
+        <v>1191</v>
       </c>
       <c r="X29" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
       <c r="Y29" t="s">
-        <v>1159</v>
+        <v>1193</v>
       </c>
       <c r="Z29" t="s">
-        <v>1160</v>
+        <v>1194</v>
       </c>
       <c r="AA29" t="s">
-        <v>1161</v>
+        <v>1195</v>
       </c>
       <c r="AB29" t="s">
-        <v>1162</v>
+        <v>1196</v>
       </c>
       <c r="AC29" t="s">
-        <v>1163</v>
+        <v>1197</v>
       </c>
       <c r="AD29" t="s">
-        <v>1164</v>
+        <v>1198</v>
       </c>
       <c r="AE29" t="s">
-        <v>1165</v>
+        <v>1199</v>
       </c>
       <c r="AF29" t="s">
-        <v>1166</v>
+        <v>1200</v>
       </c>
       <c r="AG29" t="s">
-        <v>336</v>
+        <v>1201</v>
       </c>
       <c r="AH29" t="s">
-        <v>1167</v>
+        <v>1202</v>
       </c>
       <c r="AI29" t="s">
-        <v>1168</v>
+        <v>1203</v>
       </c>
       <c r="AJ29" t="s">
-        <v>1169</v>
+        <v>1204</v>
       </c>
       <c r="AK29" t="s">
-        <v>1170</v>
+        <v>1205</v>
       </c>
       <c r="AL29" t="s">
-        <v>1171</v>
+        <v>1206</v>
       </c>
       <c r="AM29" t="s">
-        <v>1172</v>
+        <v>1207</v>
       </c>
       <c r="AN29" t="s">
-        <v>1173</v>
+        <v>1208</v>
       </c>
       <c r="AO29" t="s">
-        <v>1174</v>
+        <v>365</v>
       </c>
       <c r="AP29" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="AQ29" t="s">
-        <v>1176</v>
+        <v>1210</v>
       </c>
       <c r="AR29" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
       <c r="AS29" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
       <c r="AT29" t="s">
-        <v>336</v>
+        <v>1213</v>
       </c>
       <c r="AU29" t="s">
-        <v>1179</v>
+        <v>1214</v>
       </c>
       <c r="AV29" t="s">
-        <v>1180</v>
+        <v>1215</v>
       </c>
       <c r="AW29" t="s">
-        <v>1181</v>
+        <v>1216</v>
       </c>
       <c r="AX29" t="s">
-        <v>1182</v>
+        <v>1217</v>
       </c>
       <c r="AY29" t="s">
-        <v>336</v>
+        <v>1218</v>
       </c>
       <c r="AZ29" t="s">
-        <v>1183</v>
+        <v>1219</v>
       </c>
       <c r="BA29" t="s">
-        <v>1184</v>
+        <v>365</v>
       </c>
       <c r="BB29" t="s">
-        <v>1185</v>
+        <v>1220</v>
       </c>
       <c r="BC29" t="s">
-        <v>336</v>
+        <v>1221</v>
       </c>
       <c r="BD29" t="s">
-        <v>336</v>
+        <v>1222</v>
       </c>
       <c r="BE29" t="s">
-        <v>1186</v>
+        <v>1223</v>
       </c>
       <c r="BF29" t="s">
-        <v>1187</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1188</v>
+        <v>1225</v>
       </c>
       <c r="B30" t="s">
         <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>1189</v>
+        <v>1226</v>
       </c>
       <c r="E30" t="s">
-        <v>1190</v>
+        <v>1227</v>
       </c>
       <c r="F30" t="s">
         <v>333</v>
@@ -9123,171 +9252,171 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>1191</v>
+        <v>1228</v>
       </c>
       <c r="J30" t="s">
-        <v>1192</v>
+        <v>1229</v>
       </c>
       <c r="K30" t="s">
-        <v>1193</v>
+        <v>1230</v>
       </c>
       <c r="L30" t="s">
-        <v>336</v>
+        <v>1231</v>
       </c>
       <c r="M30" t="s">
-        <v>1194</v>
+        <v>365</v>
       </c>
       <c r="N30" t="s">
-        <v>1195</v>
+        <v>1232</v>
       </c>
       <c r="O30" t="s">
-        <v>1196</v>
+        <v>1233</v>
       </c>
       <c r="P30" t="s">
-        <v>1197</v>
+        <v>1234</v>
       </c>
       <c r="Q30" t="s">
-        <v>1198</v>
+        <v>1235</v>
       </c>
       <c r="R30" t="s">
-        <v>1199</v>
+        <v>1236</v>
       </c>
       <c r="S30" t="s">
-        <v>1200</v>
+        <v>1237</v>
       </c>
       <c r="T30" t="s">
-        <v>1201</v>
+        <v>1238</v>
       </c>
       <c r="U30" t="s">
-        <v>1202</v>
+        <v>1239</v>
       </c>
       <c r="V30" t="s">
-        <v>1203</v>
+        <v>1240</v>
       </c>
       <c r="W30" t="s">
-        <v>1204</v>
+        <v>1241</v>
       </c>
       <c r="X30" t="s">
-        <v>1205</v>
+        <v>1242</v>
       </c>
       <c r="Y30" t="s">
-        <v>1206</v>
+        <v>1243</v>
       </c>
       <c r="Z30" t="s">
-        <v>1207</v>
+        <v>1244</v>
       </c>
       <c r="AA30" t="s">
-        <v>1208</v>
+        <v>365</v>
       </c>
       <c r="AB30" t="s">
-        <v>1209</v>
+        <v>1245</v>
       </c>
       <c r="AC30" t="s">
-        <v>1210</v>
+        <v>1246</v>
       </c>
       <c r="AD30" t="s">
-        <v>1211</v>
+        <v>365</v>
       </c>
       <c r="AE30" t="s">
-        <v>1212</v>
+        <v>1247</v>
       </c>
       <c r="AF30" t="s">
-        <v>1213</v>
+        <v>1248</v>
       </c>
       <c r="AG30" t="s">
-        <v>1214</v>
+        <v>1249</v>
       </c>
       <c r="AH30" t="s">
-        <v>1215</v>
+        <v>365</v>
       </c>
       <c r="AI30" t="s">
-        <v>1216</v>
+        <v>1250</v>
       </c>
       <c r="AJ30" t="s">
-        <v>1217</v>
+        <v>1251</v>
       </c>
       <c r="AK30" t="s">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="AL30" t="s">
-        <v>1219</v>
+        <v>1253</v>
       </c>
       <c r="AM30" t="s">
-        <v>1220</v>
+        <v>1254</v>
       </c>
       <c r="AN30" t="s">
-        <v>1221</v>
+        <v>1255</v>
       </c>
       <c r="AO30" t="s">
-        <v>1222</v>
+        <v>1256</v>
       </c>
       <c r="AP30" t="s">
-        <v>336</v>
+        <v>1257</v>
       </c>
       <c r="AQ30" t="s">
-        <v>1223</v>
+        <v>1258</v>
       </c>
       <c r="AR30" t="s">
-        <v>1224</v>
+        <v>1259</v>
       </c>
       <c r="AS30" t="s">
-        <v>336</v>
+        <v>1260</v>
       </c>
       <c r="AT30" t="s">
-        <v>336</v>
+        <v>1261</v>
       </c>
       <c r="AU30" t="s">
-        <v>336</v>
+        <v>1262</v>
       </c>
       <c r="AV30" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
       <c r="AW30" t="s">
-        <v>1226</v>
+        <v>1264</v>
       </c>
       <c r="AX30" t="s">
-        <v>1227</v>
+        <v>1265</v>
       </c>
       <c r="AY30" t="s">
-        <v>1228</v>
+        <v>1266</v>
       </c>
       <c r="AZ30" t="s">
-        <v>1229</v>
+        <v>1267</v>
       </c>
       <c r="BA30" t="s">
-        <v>336</v>
+        <v>1268</v>
       </c>
       <c r="BB30" t="s">
-        <v>336</v>
+        <v>1269</v>
       </c>
       <c r="BC30" t="s">
-        <v>1230</v>
+        <v>1270</v>
       </c>
       <c r="BD30" t="s">
-        <v>1231</v>
+        <v>1271</v>
       </c>
       <c r="BE30" t="s">
-        <v>1232</v>
+        <v>1272</v>
       </c>
       <c r="BF30" t="s">
-        <v>1233</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1234</v>
+        <v>1274</v>
       </c>
       <c r="B31" t="s">
         <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>1235</v>
+        <v>1275</v>
       </c>
       <c r="E31" t="s">
-        <v>1236</v>
+        <v>1276</v>
       </c>
       <c r="F31" t="s">
         <v>333</v>
@@ -9297,154 +9426,154 @@
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>1237</v>
+        <v>365</v>
       </c>
       <c r="J31" t="s">
-        <v>336</v>
+        <v>1277</v>
       </c>
       <c r="K31" t="s">
-        <v>1238</v>
+        <v>1278</v>
       </c>
       <c r="L31" t="s">
-        <v>336</v>
+        <v>1279</v>
       </c>
       <c r="M31" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="N31" t="s">
-        <v>1239</v>
+        <v>1280</v>
       </c>
       <c r="O31" t="s">
-        <v>1240</v>
+        <v>1281</v>
       </c>
       <c r="P31" t="s">
-        <v>1241</v>
+        <v>1282</v>
       </c>
       <c r="Q31" t="s">
-        <v>1242</v>
+        <v>1283</v>
       </c>
       <c r="R31" t="s">
-        <v>1243</v>
+        <v>1284</v>
       </c>
       <c r="S31" t="s">
-        <v>336</v>
+        <v>1285</v>
       </c>
       <c r="T31" t="s">
-        <v>1244</v>
+        <v>1286</v>
       </c>
       <c r="U31" t="s">
-        <v>1245</v>
+        <v>1287</v>
       </c>
       <c r="V31" t="s">
-        <v>1246</v>
+        <v>1288</v>
       </c>
       <c r="W31" t="s">
-        <v>1247</v>
+        <v>1289</v>
       </c>
       <c r="X31" t="s">
-        <v>1248</v>
+        <v>365</v>
       </c>
       <c r="Y31" t="s">
-        <v>1249</v>
+        <v>1290</v>
       </c>
       <c r="Z31" t="s">
-        <v>1250</v>
+        <v>1291</v>
       </c>
       <c r="AA31" t="s">
-        <v>1251</v>
+        <v>1292</v>
       </c>
       <c r="AB31" t="s">
-        <v>1252</v>
+        <v>1293</v>
       </c>
       <c r="AC31" t="s">
-        <v>1253</v>
+        <v>1294</v>
       </c>
       <c r="AD31" t="s">
-        <v>1254</v>
+        <v>1295</v>
       </c>
       <c r="AE31" t="s">
-        <v>1255</v>
+        <v>1296</v>
       </c>
       <c r="AF31" t="s">
-        <v>1256</v>
+        <v>365</v>
       </c>
       <c r="AG31" t="s">
-        <v>1257</v>
+        <v>365</v>
       </c>
       <c r="AH31" t="s">
-        <v>336</v>
+        <v>1297</v>
       </c>
       <c r="AI31" t="s">
-        <v>1258</v>
+        <v>365</v>
       </c>
       <c r="AJ31" t="s">
-        <v>336</v>
+        <v>1298</v>
       </c>
       <c r="AK31" t="s">
-        <v>1259</v>
+        <v>1299</v>
       </c>
       <c r="AL31" t="s">
-        <v>1260</v>
+        <v>1300</v>
       </c>
       <c r="AM31" t="s">
-        <v>1261</v>
+        <v>1301</v>
       </c>
       <c r="AN31" t="s">
-        <v>1262</v>
+        <v>1302</v>
       </c>
       <c r="AO31" t="s">
-        <v>1263</v>
+        <v>1303</v>
       </c>
       <c r="AP31" t="s">
-        <v>1264</v>
+        <v>1304</v>
       </c>
       <c r="AQ31" t="s">
-        <v>1265</v>
+        <v>1305</v>
       </c>
       <c r="AR31" t="s">
-        <v>336</v>
+        <v>1306</v>
       </c>
       <c r="AS31" t="s">
-        <v>336</v>
+        <v>1307</v>
       </c>
       <c r="AT31" t="s">
-        <v>1266</v>
+        <v>1308</v>
       </c>
       <c r="AU31" t="s">
-        <v>1267</v>
+        <v>1309</v>
       </c>
       <c r="AV31" t="s">
-        <v>1268</v>
+        <v>1310</v>
       </c>
       <c r="AW31" t="s">
-        <v>1269</v>
+        <v>1311</v>
       </c>
       <c r="AX31" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AY31" t="s">
-        <v>1270</v>
+        <v>1312</v>
       </c>
       <c r="AZ31" t="s">
-        <v>1271</v>
+        <v>1313</v>
       </c>
       <c r="BA31" t="s">
-        <v>1272</v>
+        <v>1314</v>
       </c>
       <c r="BB31" t="s">
-        <v>1273</v>
+        <v>1315</v>
       </c>
       <c r="BC31" t="s">
-        <v>336</v>
+        <v>1316</v>
       </c>
       <c r="BD31" t="s">
-        <v>1274</v>
+        <v>365</v>
       </c>
       <c r="BE31" t="s">
-        <v>1275</v>
+        <v>1317</v>
       </c>
       <c r="BF31" t="s">
-        <v>336</v>
+        <v>1318</v>
       </c>
     </row>
   </sheetData>
